--- a/game/Resources/DB/Excel/aaa_sss_dd.xlsx
+++ b/game/Resources/DB/Excel/aaa_sss_dd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,11 +42,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁丁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name:string:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex:string:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -409,7 +429,7 @@
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,16 +439,25 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -438,27 +467,36 @@
       <c r="C3" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
